--- a/data/trans_orig/P1416-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>40910</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30062</v>
+        <v>29831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53006</v>
+        <v>54127</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08280273306509824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06084724910755168</v>
+        <v>0.06037813390525523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1072863476325224</v>
+        <v>0.1095544962635431</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -765,19 +765,19 @@
         <v>53150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41229</v>
+        <v>40781</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66234</v>
+        <v>67164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1136934804257755</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08819344636636932</v>
+        <v>0.08723435021069359</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1416798344558012</v>
+        <v>0.1436693899468022</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>99</v>
@@ -786,19 +786,19 @@
         <v>94060</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77062</v>
+        <v>77800</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115130</v>
+        <v>111154</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09782123755417764</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08014301937860116</v>
+        <v>0.08091094458293971</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1197333485472492</v>
+        <v>0.1155979031522649</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>453154</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>441058</v>
+        <v>439937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>464002</v>
+        <v>464233</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9171972669349018</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8927136523674776</v>
+        <v>0.8904455037364565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9391527508924483</v>
+        <v>0.9396218660947447</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>432</v>
@@ -836,19 +836,19 @@
         <v>414339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>401255</v>
+        <v>400325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>426260</v>
+        <v>426708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8863065195742245</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8583201655441989</v>
+        <v>0.8563306100531981</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9118065536336307</v>
+        <v>0.9127656497893066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>889</v>
@@ -857,19 +857,19 @@
         <v>867493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>846423</v>
+        <v>850399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>884491</v>
+        <v>883753</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9021787624458224</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.880266651452751</v>
+        <v>0.8844020968477351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9198569806213989</v>
+        <v>0.9190890554170603</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>60365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46070</v>
+        <v>46102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75334</v>
+        <v>78516</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0820741209091245</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06263906130983038</v>
+        <v>0.06268269141051289</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1024265916827433</v>
+        <v>0.1067528035019257</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -982,19 +982,19 @@
         <v>67039</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51366</v>
+        <v>53026</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84799</v>
+        <v>84309</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1071772779192204</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08212082771285099</v>
+        <v>0.08477471656055388</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1355711163810789</v>
+        <v>0.1347876333787353</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -1003,19 +1003,19 @@
         <v>127403</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106304</v>
+        <v>107848</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150186</v>
+        <v>149338</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09361127907705701</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07810860273154238</v>
+        <v>0.07924242621737701</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1103508969778268</v>
+        <v>0.1097278480628739</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>675124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>660155</v>
+        <v>656973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>689419</v>
+        <v>689387</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9179258790908755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8975734083172568</v>
+        <v>0.8932471964980745</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9373609386901697</v>
+        <v>0.9373173085894871</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>528</v>
@@ -1053,19 +1053,19 @@
         <v>558455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>540695</v>
+        <v>541185</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>574128</v>
+        <v>572468</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8928227220807796</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.864428883618921</v>
+        <v>0.8652123666212648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.917879172287149</v>
+        <v>0.9152252834394461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1173</v>
@@ -1074,19 +1074,19 @@
         <v>1233579</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1210796</v>
+        <v>1211644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1254678</v>
+        <v>1253134</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.906388720922943</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.889649103022173</v>
+        <v>0.8902721519371267</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9218913972684576</v>
+        <v>0.9207575737826231</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>42599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31151</v>
+        <v>31784</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58112</v>
+        <v>57868</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06669999635548021</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04877421854100406</v>
+        <v>0.04976601588548914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09098887709052676</v>
+        <v>0.09060699523136856</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -1199,19 +1199,19 @@
         <v>74822</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60652</v>
+        <v>59642</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92153</v>
+        <v>93143</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1084773585642002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08793339312753558</v>
+        <v>0.08646997034138086</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1336051171184128</v>
+        <v>0.1350392828195995</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -1220,19 +1220,19 @@
         <v>117421</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98016</v>
+        <v>96462</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138619</v>
+        <v>139108</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08839183523537049</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07378453706478071</v>
+        <v>0.07261433005470458</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1043494026360853</v>
+        <v>0.1047171471404356</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>596069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580556</v>
+        <v>580800</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>607517</v>
+        <v>606884</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9333000036445198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9090111229094739</v>
+        <v>0.9093930047686315</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9512257814589961</v>
+        <v>0.950233984114511</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>587</v>
@@ -1270,19 +1270,19 @@
         <v>614922</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>597591</v>
+        <v>596601</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>629092</v>
+        <v>630102</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8915226414357998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8663948828815873</v>
+        <v>0.8649607171804005</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9120666068724645</v>
+        <v>0.9135300296586192</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1160</v>
@@ -1291,19 +1291,19 @@
         <v>1210991</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1189793</v>
+        <v>1189304</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1230396</v>
+        <v>1231950</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9116081647646295</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8956505973639148</v>
+        <v>0.8952828528595644</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9262154629352194</v>
+        <v>0.9273856699452955</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>27903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18734</v>
+        <v>18113</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40428</v>
+        <v>40638</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05374825641452243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03608534078642719</v>
+        <v>0.03488960748963513</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07787478771105533</v>
+        <v>0.07827935316886545</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1416,19 +1416,19 @@
         <v>51091</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38649</v>
+        <v>37853</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65071</v>
+        <v>64754</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0990827425557483</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07495374495409993</v>
+        <v>0.07340917595890074</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1261937878395885</v>
+        <v>0.1255800610636005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -1437,19 +1437,19 @@
         <v>78994</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63036</v>
+        <v>62548</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98962</v>
+        <v>98107</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07633872066293886</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06091633450901858</v>
+        <v>0.06044526838605047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09563475686406885</v>
+        <v>0.09480899679020645</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>491244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>478719</v>
+        <v>478509</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500413</v>
+        <v>501034</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9462517435854776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9221252122889453</v>
+        <v>0.9217206468311347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9639146592135729</v>
+        <v>0.9651103925103649</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>454</v>
@@ -1487,19 +1487,19 @@
         <v>464551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>450571</v>
+        <v>450888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>476993</v>
+        <v>477789</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9009172574442517</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8738062121604115</v>
+        <v>0.8744199389363991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9250462550459001</v>
+        <v>0.926590824041099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>914</v>
@@ -1508,19 +1508,19 @@
         <v>955795</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>935827</v>
+        <v>936682</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>971753</v>
+        <v>972241</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9236612793370611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9043652431359313</v>
+        <v>0.9051910032097937</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9390836654909814</v>
+        <v>0.9395547316139496</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>25117</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16720</v>
+        <v>15863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35971</v>
+        <v>35989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06494994891210804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04323753530625657</v>
+        <v>0.04102146336417325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09301685695530278</v>
+        <v>0.09306473123112391</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1633,19 +1633,19 @@
         <v>29126</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20068</v>
+        <v>19538</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40565</v>
+        <v>39765</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07209752565771288</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04967467613956673</v>
+        <v>0.04836256020154982</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1004114366699439</v>
+        <v>0.09843071151012819</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -1654,19 +1654,19 @@
         <v>54243</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41020</v>
+        <v>40125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69897</v>
+        <v>69646</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06860182110725109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05187796348982532</v>
+        <v>0.05074606968481678</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08839954101064902</v>
+        <v>0.08808148266717082</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>361593</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>350739</v>
+        <v>350721</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>369990</v>
+        <v>370847</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.935050051087892</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9069831430446972</v>
+        <v>0.9069352687688761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9567624646937434</v>
+        <v>0.9589785366358266</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>368</v>
@@ -1704,19 +1704,19 @@
         <v>374860</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>363421</v>
+        <v>364221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>383918</v>
+        <v>384448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9279024743422871</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8995885633300562</v>
+        <v>0.9015692884898715</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9503253238604333</v>
+        <v>0.9516374397984501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>735</v>
@@ -1725,19 +1725,19 @@
         <v>736453</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>720799</v>
+        <v>721050</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>749676</v>
+        <v>750571</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9313981788927489</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9116004589893509</v>
+        <v>0.9119185173328292</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9481220365101747</v>
+        <v>0.9492539303151832</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>13663</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7899</v>
+        <v>7289</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21870</v>
+        <v>22435</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04669916984833496</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02699850953894588</v>
+        <v>0.02491233277420015</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0747492849729903</v>
+        <v>0.07668036045074163</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1850,19 +1850,19 @@
         <v>33869</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24813</v>
+        <v>24725</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46284</v>
+        <v>46189</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09876185796878791</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0723536300424026</v>
+        <v>0.07209937769943821</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1349658037558573</v>
+        <v>0.1346887427558955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1871,19 +1871,19 @@
         <v>47532</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35265</v>
+        <v>35349</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61876</v>
+        <v>61238</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0747929358029371</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05549085723342165</v>
+        <v>0.05562284997060956</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09736365821085455</v>
+        <v>0.0963597587732053</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>278920</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270713</v>
+        <v>270148</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284684</v>
+        <v>285294</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.953300830151665</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9252507150270097</v>
+        <v>0.9233196395492588</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9730014904610542</v>
+        <v>0.9750876672258</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>336</v>
@@ -1921,19 +1921,19 @@
         <v>309065</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>296650</v>
+        <v>296745</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>318121</v>
+        <v>318209</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9012381420312121</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8650341962441424</v>
+        <v>0.8653112572441043</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9276463699575973</v>
+        <v>0.9279006223005615</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>625</v>
@@ -1942,19 +1942,19 @@
         <v>587985</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>573641</v>
+        <v>574279</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>600252</v>
+        <v>600168</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9252070641970629</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9026363417891455</v>
+        <v>0.9036402412267948</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9445091427665783</v>
+        <v>0.9443771500293906</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>8722</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4152</v>
+        <v>4460</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16125</v>
+        <v>15791</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0415569390915015</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01978276014403428</v>
+        <v>0.02124867959903845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07683018136202593</v>
+        <v>0.07523637999066971</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2067,19 +2067,19 @@
         <v>14932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8506</v>
+        <v>8392</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25257</v>
+        <v>24994</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04471989990919042</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02547555379611301</v>
+        <v>0.02513355063223248</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07564012299718582</v>
+        <v>0.07485155219095428</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2088,19 +2088,19 @@
         <v>23654</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14652</v>
+        <v>14041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35022</v>
+        <v>35035</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04349911521827613</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02694339193906669</v>
+        <v>0.02582091621351535</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06440420907835386</v>
+        <v>0.06442776008179686</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>201161</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>193758</v>
+        <v>194092</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>205731</v>
+        <v>205423</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9584430609084985</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9231698186379733</v>
+        <v>0.9247636200093305</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9802172398559653</v>
+        <v>0.9787513204009616</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>277</v>
@@ -2138,19 +2138,19 @@
         <v>318976</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>308651</v>
+        <v>308914</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>325402</v>
+        <v>325516</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9552801000908095</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9243598770028146</v>
+        <v>0.9251484478090457</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9745244462038871</v>
+        <v>0.9748664493677676</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>488</v>
@@ -2159,19 +2159,19 @@
         <v>520137</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>508769</v>
+        <v>508756</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>529139</v>
+        <v>529750</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9565008847817239</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9355957909216462</v>
+        <v>0.9355722399182032</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9730566080609333</v>
+        <v>0.9741790837864847</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>219279</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>190111</v>
+        <v>193608</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>248076</v>
+        <v>249457</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06692390733899529</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05802178607102218</v>
+        <v>0.05908915541102524</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07571279204719857</v>
+        <v>0.07613413014860665</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>315</v>
@@ -2284,19 +2284,19 @@
         <v>324030</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>291517</v>
+        <v>289393</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>357710</v>
+        <v>359060</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09588951205477066</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08626816254183399</v>
+        <v>0.08563969490159655</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.105856501192828</v>
+        <v>0.1062559475636729</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>527</v>
@@ -2305,19 +2305,19 @@
         <v>543309</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>498791</v>
+        <v>501268</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>586741</v>
+        <v>591226</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08163008339646292</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07494144170394948</v>
+        <v>0.07531357902371294</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08815567872117933</v>
+        <v>0.08882946057112293</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3057264</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3028467</v>
+        <v>3027086</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3086432</v>
+        <v>3082935</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9330760926610047</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9242872079528015</v>
+        <v>0.9238658698513934</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.941978213928978</v>
+        <v>0.940910844588975</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2982</v>
@@ -2355,19 +2355,19 @@
         <v>3055167</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3021487</v>
+        <v>3020137</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3087680</v>
+        <v>3089804</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9041104879452293</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.894143498807172</v>
+        <v>0.8937440524363272</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9137318374581659</v>
+        <v>0.9143603050984039</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5984</v>
@@ -2376,19 +2376,19 @@
         <v>6112432</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6069000</v>
+        <v>6064515</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6156950</v>
+        <v>6154473</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9183699166035371</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9118443212788206</v>
+        <v>0.9111705394288772</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9250585582960505</v>
+        <v>0.9246864209762872</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>38709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28224</v>
+        <v>27748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52800</v>
+        <v>51931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08523368347674472</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06214661088843142</v>
+        <v>0.06109889572377302</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1162624598139064</v>
+        <v>0.1143486486910075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -2744,19 +2744,19 @@
         <v>38102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27449</v>
+        <v>28114</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49916</v>
+        <v>50766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0885627730028323</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06380047317452975</v>
+        <v>0.06534627119109566</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1160210941443641</v>
+        <v>0.1179969362662723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -2765,19 +2765,19 @@
         <v>76811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62049</v>
+        <v>60783</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96669</v>
+        <v>93709</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08685321363730264</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07016083921145506</v>
+        <v>0.06872994333698758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1093076234869852</v>
+        <v>0.105961147202742</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>415437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>401346</v>
+        <v>402215</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425922</v>
+        <v>426398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9147663165232552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8837375401860932</v>
+        <v>0.8856513513089926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9378533891115685</v>
+        <v>0.9389011042762271</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>383</v>
@@ -2815,19 +2815,19 @@
         <v>392128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>380314</v>
+        <v>379464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>402781</v>
+        <v>402116</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9114372269971677</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8839789058556359</v>
+        <v>0.8820030637337275</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9361995268254703</v>
+        <v>0.9346537288089043</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>791</v>
@@ -2836,19 +2836,19 @@
         <v>807565</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>787707</v>
+        <v>790667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>822327</v>
+        <v>823593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9131467863626974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8906923765130149</v>
+        <v>0.8940388527972581</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.929839160788545</v>
+        <v>0.9312700566630127</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>44481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32481</v>
+        <v>32851</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56836</v>
+        <v>58237</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06473803431936914</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04727333640501675</v>
+        <v>0.04781164606672016</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08272062971066546</v>
+        <v>0.08475897690265853</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -2961,19 +2961,19 @@
         <v>51692</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38567</v>
+        <v>39315</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66901</v>
+        <v>66915</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08470518182354519</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06319868427518933</v>
+        <v>0.06442359388654742</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1096281305217107</v>
+        <v>0.1096516011310054</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -2982,19 +2982,19 @@
         <v>96172</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78739</v>
+        <v>78621</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116825</v>
+        <v>117616</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07413035766045761</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06069275288723478</v>
+        <v>0.06060144053707767</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09004979878695334</v>
+        <v>0.09065907649952455</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>642606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>630251</v>
+        <v>628850</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>654606</v>
+        <v>654236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9352619656806308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9172793702893346</v>
+        <v>0.9152410230973416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9527266635949833</v>
+        <v>0.9521883539332798</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>522</v>
@@ -3032,19 +3032,19 @@
         <v>558563</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>543354</v>
+        <v>543340</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>571688</v>
+        <v>570940</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9152948181764549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8903718694782895</v>
+        <v>0.8903483988689952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.936801315724811</v>
+        <v>0.9355764061134538</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1145</v>
@@ -3053,19 +3053,19 @@
         <v>1201170</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1180517</v>
+        <v>1179726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1218603</v>
+        <v>1218721</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9258696423395424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9099502012130466</v>
+        <v>0.9093409235004754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9393072471127651</v>
+        <v>0.9393985594629223</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>41864</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29061</v>
+        <v>30216</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56160</v>
+        <v>56619</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06148841766792183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04268408069805704</v>
+        <v>0.0443797251113049</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08248680253592808</v>
+        <v>0.08315974738279101</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -3178,19 +3178,19 @@
         <v>76595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60048</v>
+        <v>60022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94325</v>
+        <v>95598</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1079445308028932</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08462593977426475</v>
+        <v>0.0845894317037382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1329318642478446</v>
+        <v>0.1347253096102058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -3199,19 +3199,19 @@
         <v>118458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100190</v>
+        <v>98742</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>140026</v>
+        <v>141493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08519649374769465</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07205793263287243</v>
+        <v>0.07101584832197909</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1007077372997392</v>
+        <v>0.1017633955606855</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>638977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>624681</v>
+        <v>624222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>651780</v>
+        <v>650625</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9385115823320782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.917513197464072</v>
+        <v>0.916840252617209</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.957315919301943</v>
+        <v>0.9556202748886952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>596</v>
@@ -3249,19 +3249,19 @@
         <v>632979</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615249</v>
+        <v>613976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>649526</v>
+        <v>649552</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8920554691971068</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8670681357521556</v>
+        <v>0.865274690389794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9153740602257355</v>
+        <v>0.9154105682962614</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1208</v>
@@ -3270,19 +3270,19 @@
         <v>1271957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1250389</v>
+        <v>1248922</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1290225</v>
+        <v>1291673</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9148035062523053</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8992922627002607</v>
+        <v>0.8982366044393144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9279420673671275</v>
+        <v>0.9289841516780206</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>14795</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8348</v>
+        <v>8433</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24724</v>
+        <v>24648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02407147233234951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01358325513668013</v>
+        <v>0.01372134301537902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04022615542810955</v>
+        <v>0.04010265492950008</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -3395,19 +3395,19 @@
         <v>38095</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27325</v>
+        <v>27670</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54977</v>
+        <v>52601</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06182276165219268</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04434494658607351</v>
+        <v>0.04490427693447797</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08921960299072511</v>
+        <v>0.08536347003057899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -3416,19 +3416,19 @@
         <v>52890</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37830</v>
+        <v>39812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69150</v>
+        <v>71142</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04297138481114476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03073553017355848</v>
+        <v>0.03234564439291827</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0561820437290815</v>
+        <v>0.05780071747956502</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>599822</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>589893</v>
+        <v>589969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>606269</v>
+        <v>606184</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9759285276676505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9597738445718905</v>
+        <v>0.9598973450705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9864167448633199</v>
+        <v>0.9862786569846209</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>506</v>
@@ -3466,19 +3466,19 @@
         <v>578104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>561222</v>
+        <v>563598</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>588874</v>
+        <v>588529</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9381772383478073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9107803970092748</v>
+        <v>0.9146365299694211</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9556550534139265</v>
+        <v>0.9550957230655223</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1041</v>
@@ -3487,19 +3487,19 @@
         <v>1177926</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1161666</v>
+        <v>1159674</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1192986</v>
+        <v>1191004</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9570286151888553</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9438179562709185</v>
+        <v>0.9421992825204349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9692644698264415</v>
+        <v>0.9676543556070818</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>14925</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8489</v>
+        <v>8532</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23869</v>
+        <v>24443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03475645478846116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01976770422467297</v>
+        <v>0.01986832062219735</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05558238699359475</v>
+        <v>0.05691879411824235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3612,19 +3612,19 @@
         <v>19653</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12331</v>
+        <v>12800</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30096</v>
+        <v>29200</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04388757268254037</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02753654953517223</v>
+        <v>0.02858497462393917</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06720834603422117</v>
+        <v>0.0652079280548431</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -3633,19 +3633,19 @@
         <v>34578</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24214</v>
+        <v>24022</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47194</v>
+        <v>48478</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03941762518684724</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02760274571454712</v>
+        <v>0.02738361813858619</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05379857005085877</v>
+        <v>0.05526299154568839</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>414504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>405560</v>
+        <v>404986</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>420940</v>
+        <v>420897</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9652435452115389</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9444176130064051</v>
+        <v>0.9430812058817576</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.980232295775327</v>
+        <v>0.9801316793778027</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>387</v>
@@ -3683,19 +3683,19 @@
         <v>428147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>417704</v>
+        <v>418600</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>435469</v>
+        <v>435000</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9561124273174596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.932791653965778</v>
+        <v>0.9347920719451563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9724634504648275</v>
+        <v>0.9714150253760608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>766</v>
@@ -3704,19 +3704,19 @@
         <v>842651</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>830035</v>
+        <v>828751</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>853015</v>
+        <v>853207</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9605823748131528</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9462014299491412</v>
+        <v>0.9447370084543116</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9723972542854529</v>
+        <v>0.9726163818614139</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>12359</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6301</v>
+        <v>6003</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22739</v>
+        <v>23216</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03989575033137957</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02034107889306607</v>
+        <v>0.01937689835104655</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07340161078768229</v>
+        <v>0.07494219154797321</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -3829,19 +3829,19 @@
         <v>14979</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8407</v>
+        <v>8815</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24058</v>
+        <v>23916</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04231514068544903</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02374764330760009</v>
+        <v>0.02490140421132297</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06796113167034129</v>
+        <v>0.06755940999138962</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -3850,19 +3850,19 @@
         <v>27339</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17865</v>
+        <v>18100</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41314</v>
+        <v>41338</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04118601471420289</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02691398541604618</v>
+        <v>0.02726733536617309</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06224019814015603</v>
+        <v>0.06227574444156278</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>297427</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>287047</v>
+        <v>286570</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>303485</v>
+        <v>303783</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9601042496686204</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9265983892123175</v>
+        <v>0.9250578084520266</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9796589211069339</v>
+        <v>0.9806231016489535</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>329</v>
@@ -3900,19 +3900,19 @@
         <v>339017</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>329938</v>
+        <v>330080</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>345589</v>
+        <v>345181</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9576848593145509</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9320388683296588</v>
+        <v>0.9324405900086103</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9762523566924001</v>
+        <v>0.975098595788677</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>601</v>
@@ -3921,19 +3921,19 @@
         <v>636443</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>622468</v>
+        <v>622444</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>645917</v>
+        <v>645682</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9588139852857971</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9377598018598433</v>
+        <v>0.9377242555584374</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9730860145839532</v>
+        <v>0.972732664633827</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>8639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3335</v>
+        <v>4166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17787</v>
+        <v>17716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03457467037760055</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01334768850399055</v>
+        <v>0.01667404229894396</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07118887524164012</v>
+        <v>0.0709069989564349</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4046,19 +4046,19 @@
         <v>21075</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13256</v>
+        <v>13368</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30969</v>
+        <v>33511</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05417976525601961</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03407807249040676</v>
+        <v>0.03436709411404571</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07961507153822059</v>
+        <v>0.08615172370338375</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -4067,19 +4067,19 @@
         <v>29713</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20235</v>
+        <v>19768</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43383</v>
+        <v>42369</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04651207458858435</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03167533930699115</v>
+        <v>0.03094370264719184</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06791051361064053</v>
+        <v>0.06632275633717864</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>241212</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>232064</v>
+        <v>232135</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>246516</v>
+        <v>245685</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9654253296223995</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9288111247583599</v>
+        <v>0.929093001043566</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9866523114960094</v>
+        <v>0.983325957701056</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>331</v>
@@ -4117,19 +4117,19 @@
         <v>367904</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>358010</v>
+        <v>355468</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>375723</v>
+        <v>375611</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9458202347439804</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9203849284617794</v>
+        <v>0.9138482762966162</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9659219275095932</v>
+        <v>0.9656329058859542</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>546</v>
@@ -4138,19 +4138,19 @@
         <v>609117</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>595447</v>
+        <v>596461</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>618595</v>
+        <v>619062</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9534879254114157</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9320894863893581</v>
+        <v>0.9336772436628216</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9683246606930086</v>
+        <v>0.9690562973528082</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>175771</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>149054</v>
+        <v>151073</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>204003</v>
+        <v>202435</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05130862410513538</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0435098820527838</v>
+        <v>0.04409917184942139</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05954961786880995</v>
+        <v>0.05909200078441039</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>243</v>
@@ -4263,19 +4263,19 @@
         <v>260191</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>231632</v>
+        <v>229975</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>294350</v>
+        <v>293872</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07314830276374262</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06511952507811121</v>
+        <v>0.06465355223801444</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08275147388935107</v>
+        <v>0.08261728667356021</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>407</v>
@@ -4284,19 +4284,19 @@
         <v>435962</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>396700</v>
+        <v>391533</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>480485</v>
+        <v>479168</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06243375703205586</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05681103674328739</v>
+        <v>0.05607113253403907</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06880991841940987</v>
+        <v>0.06862126736390818</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3249986</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3221754</v>
+        <v>3223322</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3276703</v>
+        <v>3274684</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9486913758948646</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.94045038213119</v>
+        <v>0.9409079992155894</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9564901179472161</v>
+        <v>0.9559008281505785</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3054</v>
@@ -4334,19 +4334,19 @@
         <v>3296843</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3262684</v>
+        <v>3263162</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3325402</v>
+        <v>3327059</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9268516972362574</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9172485261106489</v>
+        <v>0.9173827133264398</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9348804749218887</v>
+        <v>0.9353464477619856</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6098</v>
@@ -4355,19 +4355,19 @@
         <v>6546828</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6502305</v>
+        <v>6503622</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6586090</v>
+        <v>6591257</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9375662429679441</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9311900815805899</v>
+        <v>0.9313787326360918</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9431889632567119</v>
+        <v>0.9439288674659609</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>43153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31160</v>
+        <v>31575</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56488</v>
+        <v>57280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1028773529961967</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07428505913992184</v>
+        <v>0.07527542816542673</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1346677548004029</v>
+        <v>0.1365544573234747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -4723,19 +4723,19 @@
         <v>37514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27223</v>
+        <v>27643</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49293</v>
+        <v>49650</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09478971433843372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0687886032908068</v>
+        <v>0.06984815189190924</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1245531552558724</v>
+        <v>0.1254565877148814</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -4744,19 +4744,19 @@
         <v>80667</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65989</v>
+        <v>66106</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97990</v>
+        <v>98217</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09895113515608919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08094642306635459</v>
+        <v>0.08109051655759317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1202003752150084</v>
+        <v>0.1204795029152415</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>376310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>362975</v>
+        <v>362183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>388303</v>
+        <v>387888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8971226470038033</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8653322451995971</v>
+        <v>0.8634455426765253</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9257149408600781</v>
+        <v>0.9247245718345731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>366</v>
@@ -4794,19 +4794,19 @@
         <v>358241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>346462</v>
+        <v>346105</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>368532</v>
+        <v>368112</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9052102856615662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8754468447441276</v>
+        <v>0.8745434122851187</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9312113967091932</v>
+        <v>0.9301518481080908</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>717</v>
@@ -4815,19 +4815,19 @@
         <v>734551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>717228</v>
+        <v>717001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>749229</v>
+        <v>749112</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9010488648439108</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8797996247849914</v>
+        <v>0.8795204970847583</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9190535769336453</v>
+        <v>0.9189094834424067</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>38193</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28297</v>
+        <v>27068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51916</v>
+        <v>50677</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06467996735172081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04792089862528615</v>
+        <v>0.04583954085393335</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08791988498501045</v>
+        <v>0.08582088973706911</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -4940,19 +4940,19 @@
         <v>55050</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43049</v>
+        <v>42350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70340</v>
+        <v>68737</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09768589949370242</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07638899509404613</v>
+        <v>0.07515019904098644</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1248173320032446</v>
+        <v>0.1219719787849771</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -4961,19 +4961,19 @@
         <v>93244</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76397</v>
+        <v>75008</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111028</v>
+        <v>111668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08079750700220255</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06619999428116696</v>
+        <v>0.06499640417299303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09620812937694477</v>
+        <v>0.09676232924475106</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>552303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>538580</v>
+        <v>539819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>562199</v>
+        <v>563428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9353200326482792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.91208011501499</v>
+        <v>0.9141791102629309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9520791013747139</v>
+        <v>0.9541604591460666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>524</v>
@@ -5011,19 +5011,19 @@
         <v>508494</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>493204</v>
+        <v>494807</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>520495</v>
+        <v>521194</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9023141005062976</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8751826679967558</v>
+        <v>0.8780280212150231</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9236110049059543</v>
+        <v>0.9248498009590137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1054</v>
@@ -5032,19 +5032,19 @@
         <v>1060796</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1043012</v>
+        <v>1042372</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1077643</v>
+        <v>1079032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9192024929977974</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9037918706230551</v>
+        <v>0.903237670755249</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.933800005718833</v>
+        <v>0.935003595827007</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>31884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20874</v>
+        <v>21259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45569</v>
+        <v>44964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04765251962435547</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03119750163287596</v>
+        <v>0.03177302576846949</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0681055390483498</v>
+        <v>0.06720102528532605</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -5157,19 +5157,19 @@
         <v>65785</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52469</v>
+        <v>51130</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82959</v>
+        <v>82855</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09946537972250634</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07933137346758501</v>
+        <v>0.0773079814733838</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.125432116960194</v>
+        <v>0.1252753347583264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -5178,19 +5178,19 @@
         <v>97669</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79636</v>
+        <v>79802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117555</v>
+        <v>119628</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07340881680488512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05985499835373579</v>
+        <v>0.05997952683315263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08835511500952353</v>
+        <v>0.08991293350235501</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>637213</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>623528</v>
+        <v>624133</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>648223</v>
+        <v>647838</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9523474803756445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9318944609516512</v>
+        <v>0.9327989747146741</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9688024983671241</v>
+        <v>0.9682269742315306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>601</v>
@@ -5228,19 +5228,19 @@
         <v>595601</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>578427</v>
+        <v>578531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>608917</v>
+        <v>610256</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9005346202774936</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8745678830398059</v>
+        <v>0.8747246652416736</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.920668626532415</v>
+        <v>0.9226920185266162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1210</v>
@@ -5249,19 +5249,19 @@
         <v>1232814</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1212928</v>
+        <v>1210855</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1250847</v>
+        <v>1250681</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9265911831951149</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9116448849904761</v>
+        <v>0.9100870664976448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9401450016462642</v>
+        <v>0.9400204731668471</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>22150</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13843</v>
+        <v>13219</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33259</v>
+        <v>33050</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03428534859786038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02142733452191981</v>
+        <v>0.02046186933125181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05148029570524235</v>
+        <v>0.05115777271694635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -5374,19 +5374,19 @@
         <v>50115</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37698</v>
+        <v>37422</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64990</v>
+        <v>66605</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0772094016009225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05807950955169466</v>
+        <v>0.05765412326215741</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1001271829138192</v>
+        <v>0.1026153728401951</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -5395,19 +5395,19 @@
         <v>72265</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55459</v>
+        <v>55441</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90729</v>
+        <v>89560</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0557975638904868</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04282140171160428</v>
+        <v>0.0428076718617416</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07005419042353447</v>
+        <v>0.06915189411329835</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>623898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>612789</v>
+        <v>612998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>632205</v>
+        <v>632829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9657146514021396</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9485197042947577</v>
+        <v>0.9488422272830538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9785726654780802</v>
+        <v>0.9795381306687483</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>556</v>
@@ -5445,19 +5445,19 @@
         <v>598962</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>584087</v>
+        <v>582472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>611379</v>
+        <v>611655</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9227905983990775</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8998728170861807</v>
+        <v>0.8973846271598049</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9419204904483053</v>
+        <v>0.9423458767378425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1118</v>
@@ -5466,19 +5466,19 @@
         <v>1222860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1204396</v>
+        <v>1205565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1239666</v>
+        <v>1239684</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9442024361095132</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9299458095764653</v>
+        <v>0.9308481058867016</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9571785982883957</v>
+        <v>0.9571923281382584</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>19131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11670</v>
+        <v>11699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29969</v>
+        <v>29725</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04002922377867774</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02441910969124667</v>
+        <v>0.024479857372726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06270752351215382</v>
+        <v>0.06219777608845523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -5591,19 +5591,19 @@
         <v>39704</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28795</v>
+        <v>29199</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55155</v>
+        <v>53560</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07991236353562424</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05795597393670256</v>
+        <v>0.05876826024484635</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1110088151794549</v>
+        <v>0.1077987162924197</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -5612,19 +5612,19 @@
         <v>58835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43742</v>
+        <v>43755</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77199</v>
+        <v>75539</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06035807997024485</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04487473831480811</v>
+        <v>0.04488751758439163</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07919708836296345</v>
+        <v>0.07749410002551221</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>458787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>447949</v>
+        <v>448193</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>466248</v>
+        <v>466219</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9599707762213222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9372924764878462</v>
+        <v>0.9378022239115443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9755808903087533</v>
+        <v>0.9755201426272738</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>399</v>
@@ -5662,19 +5662,19 @@
         <v>457145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>441694</v>
+        <v>443289</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>468054</v>
+        <v>467650</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9200876364643757</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8889911848205452</v>
+        <v>0.8922012837075802</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9420440260632974</v>
+        <v>0.9412317397551534</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>806</v>
@@ -5683,19 +5683,19 @@
         <v>915932</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>897568</v>
+        <v>899228</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>931025</v>
+        <v>931012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9396419200297551</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9208029116370366</v>
+        <v>0.9225058999744877</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9551252616851921</v>
+        <v>0.9551124824156082</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>4690</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1827</v>
+        <v>1811</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10065</v>
+        <v>10261</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01402952519506262</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005463466156866301</v>
+        <v>0.005415335710323243</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03010593634336088</v>
+        <v>0.03069106543364703</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -5808,19 +5808,19 @@
         <v>13338</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7264</v>
+        <v>8027</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22374</v>
+        <v>23397</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0353089946575112</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01922864236679158</v>
+        <v>0.02124833256094153</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05922739399202887</v>
+        <v>0.06193455553017774</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -5829,19 +5829,19 @@
         <v>18029</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10213</v>
+        <v>11399</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27459</v>
+        <v>27404</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02531819994473437</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01434172879408837</v>
+        <v>0.01600806998382292</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0385614462377919</v>
+        <v>0.03848435541012075</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>329640</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>324265</v>
+        <v>324069</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332503</v>
+        <v>332519</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9859704748049374</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9698940636566389</v>
+        <v>0.9693089345663529</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9945365338431337</v>
+        <v>0.9945846642896766</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>341</v>
@@ -5879,19 +5879,19 @@
         <v>364424</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>355388</v>
+        <v>354365</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>370498</v>
+        <v>369735</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9646910053424887</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9407726060079711</v>
+        <v>0.9380654444698222</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9807713576332083</v>
+        <v>0.9787516674390585</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>661</v>
@@ -5900,19 +5900,19 @@
         <v>694063</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>684633</v>
+        <v>684688</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>701879</v>
+        <v>700693</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9746818000552656</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9614385537622081</v>
+        <v>0.9615156445898793</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9856582712059115</v>
+        <v>0.9839919300161771</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>8267</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4508</v>
+        <v>4044</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15248</v>
+        <v>15076</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03216815469590899</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01753969003745716</v>
+        <v>0.01573691531362778</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05933183137728341</v>
+        <v>0.05866077729670121</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -6025,19 +6025,19 @@
         <v>20064</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12468</v>
+        <v>11973</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31940</v>
+        <v>31093</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05014000009945139</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03115639543988275</v>
+        <v>0.029919735609653</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07981704362516748</v>
+        <v>0.07769921072841456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -6046,19 +6046,19 @@
         <v>28332</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18657</v>
+        <v>18176</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>41751</v>
+        <v>41346</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04311175866207521</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02839022475969323</v>
+        <v>0.02765774381289698</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06353169902272945</v>
+        <v>0.06291491828477916</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>248731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>241750</v>
+        <v>241922</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>252490</v>
+        <v>252954</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9678318453040911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9406681686227164</v>
+        <v>0.9413392227032987</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.982460309962542</v>
+        <v>0.9842630846863722</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>285</v>
@@ -6096,19 +6096,19 @@
         <v>380105</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>368229</v>
+        <v>369076</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>387701</v>
+        <v>388196</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9498599999005486</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9201829563748326</v>
+        <v>0.9223007892715855</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9688436045601173</v>
+        <v>0.970080264390347</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>577</v>
@@ -6117,19 +6117,19 @@
         <v>628835</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>615416</v>
+        <v>615821</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>638510</v>
+        <v>638991</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9568882413379248</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9364683009772705</v>
+        <v>0.9370850817152199</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9716097752403066</v>
+        <v>0.972342256187103</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>167469</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>141703</v>
+        <v>142105</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>195430</v>
+        <v>193487</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04933756809564291</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04174680470936292</v>
+        <v>0.04186507758721519</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05757502808004282</v>
+        <v>0.05700254670070513</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>266</v>
@@ -6242,19 +6242,19 @@
         <v>281571</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>250315</v>
+        <v>249461</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>314483</v>
+        <v>316563</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07943788241922732</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07061988369797076</v>
+        <v>0.07037897366956115</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08872308701189194</v>
+        <v>0.08930994241980432</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>426</v>
@@ -6263,19 +6263,19 @@
         <v>449040</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>409668</v>
+        <v>408510</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>496767</v>
+        <v>490707</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06471348445840792</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05903944033177514</v>
+        <v>0.0588724850318107</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0715917241276039</v>
+        <v>0.0707184017167687</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3226881</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3198920</v>
+        <v>3200863</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3252647</v>
+        <v>3252245</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9506624319043571</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9424249719199572</v>
+        <v>0.9429974532992949</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9582531952906371</v>
+        <v>0.9581349224127848</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3072</v>
@@ -6313,19 +6313,19 @@
         <v>3262971</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3230059</v>
+        <v>3227979</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3294227</v>
+        <v>3295081</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9205621175807727</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9112769129881079</v>
+        <v>0.9106900575801958</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9293801163020291</v>
+        <v>0.929621026330439</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6143</v>
@@ -6334,19 +6334,19 @@
         <v>6489852</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6442125</v>
+        <v>6448185</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6529224</v>
+        <v>6530382</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.935286515541592</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.928408275872396</v>
+        <v>0.9292815982832313</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9409605596682242</v>
+        <v>0.9411275149681891</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>57110</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38090</v>
+        <v>37410</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83479</v>
+        <v>81126</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1400456862452968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09340603312654093</v>
+        <v>0.09173790777873386</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2047100546201982</v>
+        <v>0.1989386022526307</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -6702,19 +6702,19 @@
         <v>38525</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24937</v>
+        <v>24804</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56063</v>
+        <v>55846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1070609422529065</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06930093951969506</v>
+        <v>0.0689300921122793</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1558002080789866</v>
+        <v>0.1551957178159559</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -6723,19 +6723,19 @@
         <v>95635</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68916</v>
+        <v>72769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126300</v>
+        <v>128150</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1245835522713879</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08977671070010311</v>
+        <v>0.09479699289064417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1645310681763124</v>
+        <v>0.1669410237980943</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>350683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>324314</v>
+        <v>326667</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>369703</v>
+        <v>370383</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8599543137547033</v>
+        <v>0.8599543137547032</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.795289945379802</v>
+        <v>0.8010613977473694</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9065939668734592</v>
+        <v>0.9082620922212662</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -6773,19 +6773,19 @@
         <v>321316</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303778</v>
+        <v>303995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>334904</v>
+        <v>335037</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8929390577470936</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8441997919210135</v>
+        <v>0.8448042821840439</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9306990604803049</v>
+        <v>0.9310699078877207</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>329</v>
@@ -6794,19 +6794,19 @@
         <v>671999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>641334</v>
+        <v>639484</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>698718</v>
+        <v>694865</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8754164477286123</v>
+        <v>0.8754164477286122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8354689318236874</v>
+        <v>0.8330589762019057</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9102232892998966</v>
+        <v>0.9052030071093559</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>52418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37390</v>
+        <v>36823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72562</v>
+        <v>70647</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1099167995651942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07840375507952241</v>
+        <v>0.07721485217464173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1521557358471994</v>
+        <v>0.1481402176000978</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -6919,19 +6919,19 @@
         <v>66178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49407</v>
+        <v>51217</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82109</v>
+        <v>82481</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1337313103710016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0998405924097099</v>
+        <v>0.1034986414481504</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1659249194583556</v>
+        <v>0.16667615227038</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -6940,19 +6940,19 @@
         <v>118596</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95536</v>
+        <v>98001</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>142308</v>
+        <v>143335</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1220442364069678</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09831338473377839</v>
+        <v>0.1008503467817669</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1464453560403196</v>
+        <v>0.1475015899700562</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>424472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>404328</v>
+        <v>406243</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>439500</v>
+        <v>440067</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8900832004348056</v>
+        <v>0.8900832004348057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8478442641528007</v>
+        <v>0.8518597823999023</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9215962449204776</v>
+        <v>0.9227851478253584</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>392</v>
@@ -6990,19 +6990,19 @@
         <v>428681</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>412750</v>
+        <v>412378</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>445452</v>
+        <v>443642</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8662686896289984</v>
+        <v>0.8662686896289983</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8340750805416446</v>
+        <v>0.83332384772962</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9001594075902902</v>
+        <v>0.8965013585518496</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>660</v>
@@ -7011,19 +7011,19 @@
         <v>853153</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>829441</v>
+        <v>828414</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>876213</v>
+        <v>873748</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8779557635930323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8535546439596805</v>
+        <v>0.8524984100299434</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9016866152662222</v>
+        <v>0.8991496532182331</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>70113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54262</v>
+        <v>55978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88487</v>
+        <v>88991</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1129330830096907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08740114114733932</v>
+        <v>0.09016496693098359</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1425284620771778</v>
+        <v>0.1433406686980016</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -7136,19 +7136,19 @@
         <v>72374</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60822</v>
+        <v>58548</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86923</v>
+        <v>86242</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1166045483735326</v>
+        <v>0.1166045483735327</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09799343764680343</v>
+        <v>0.0943295591909733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1400452273505586</v>
+        <v>0.138948834280113</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -7157,19 +7157,19 @@
         <v>142487</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120025</v>
+        <v>123152</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163990</v>
+        <v>165200</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1147685806030497</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09667622130673738</v>
+        <v>0.09919487804746344</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1320885183618407</v>
+        <v>0.1330629744099832</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>550724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>532350</v>
+        <v>531846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>566575</v>
+        <v>564859</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8870669169903093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.857471537922822</v>
+        <v>0.8566593313019983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9125988588526605</v>
+        <v>0.9098350330690165</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>744</v>
@@ -7207,19 +7207,19 @@
         <v>548304</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>533755</v>
+        <v>534436</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>559856</v>
+        <v>562130</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8833954516264672</v>
+        <v>0.8833954516264674</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8599547726494412</v>
+        <v>0.8610511657198868</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9020065623531965</v>
+        <v>0.9056704408090267</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1228</v>
@@ -7228,19 +7228,19 @@
         <v>1099028</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1077525</v>
+        <v>1076315</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1121490</v>
+        <v>1118363</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8852314193969505</v>
+        <v>0.8852314193969503</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8679114816381596</v>
+        <v>0.866937025590016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.903323778693263</v>
+        <v>0.9008051219525364</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>73290</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57286</v>
+        <v>57757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91773</v>
+        <v>90718</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1050636035849623</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0821210559699847</v>
+        <v>0.0827968091254102</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1315584745642323</v>
+        <v>0.1300472985904526</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -7353,19 +7353,19 @@
         <v>110358</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96298</v>
+        <v>95443</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>127128</v>
+        <v>126896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1502927943447612</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1311458375020022</v>
+        <v>0.1299815924659325</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1731316748876575</v>
+        <v>0.1728163446169371</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>237</v>
@@ -7374,19 +7374,19 @@
         <v>183648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161773</v>
+        <v>161104</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208328</v>
+        <v>208511</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1282578889654219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1129809775040311</v>
+        <v>0.1125132490872329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1454940264534099</v>
+        <v>0.1456221426572333</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>624290</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>605807</v>
+        <v>606862</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>640294</v>
+        <v>639823</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.894936396415038</v>
+        <v>0.8949363964150376</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8684415254357668</v>
+        <v>0.8699527014095475</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9178789440300152</v>
+        <v>0.9172031908745899</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>970</v>
@@ -7424,19 +7424,19 @@
         <v>623926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>607156</v>
+        <v>607388</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>637986</v>
+        <v>638841</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8497072056552387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8268683251123423</v>
+        <v>0.827183655383063</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8688541624979977</v>
+        <v>0.8700184075340678</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1562</v>
@@ -7445,19 +7445,19 @@
         <v>1248216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1223536</v>
+        <v>1223353</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1270091</v>
+        <v>1270760</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8717421110345781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8545059735465902</v>
+        <v>0.8543778573427667</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.887019022495969</v>
+        <v>0.8874867509127669</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>49700</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38774</v>
+        <v>37681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64603</v>
+        <v>64854</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08182135446255454</v>
+        <v>0.08182135446255455</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06383360562199211</v>
+        <v>0.06203473812718979</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1063558804417349</v>
+        <v>0.1067683031533089</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -7570,19 +7570,19 @@
         <v>73435</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62338</v>
+        <v>60251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>87441</v>
+        <v>86451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1213834932521727</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.103040769338852</v>
+        <v>0.09959059589110124</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1445343225602846</v>
+        <v>0.1428975968673566</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -7591,19 +7591,19 @@
         <v>123135</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106584</v>
+        <v>105617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141047</v>
+        <v>142006</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1015626150560462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08791119367880977</v>
+        <v>0.08711360682768729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1163366107864952</v>
+        <v>0.1171271246238239</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>557723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>542820</v>
+        <v>542569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>568649</v>
+        <v>569742</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9181786455374454</v>
+        <v>0.9181786455374457</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8936441195582656</v>
+        <v>0.893231696846691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.936166394378008</v>
+        <v>0.9379652618728103</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>876</v>
@@ -7641,19 +7641,19 @@
         <v>531548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>517542</v>
+        <v>518532</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>542645</v>
+        <v>544732</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8786165067478271</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8554656774397154</v>
+        <v>0.8571024031326436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.896959230661148</v>
+        <v>0.9004094041088988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1483</v>
@@ -7662,19 +7662,19 @@
         <v>1089271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1071359</v>
+        <v>1070400</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1105822</v>
+        <v>1106789</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8984373849439536</v>
+        <v>0.8984373849439539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.883663389213505</v>
+        <v>0.8828728753761759</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9120888063211903</v>
+        <v>0.9128863931723125</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>23599</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16872</v>
+        <v>16443</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34429</v>
+        <v>33177</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05809552487126954</v>
+        <v>0.05809552487126953</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04153530180491206</v>
+        <v>0.04047867548087482</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08475598626505899</v>
+        <v>0.08167428525397762</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -7787,19 +7787,19 @@
         <v>45310</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36147</v>
+        <v>37013</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54989</v>
+        <v>56327</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1033162654487747</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08242422591680591</v>
+        <v>0.08439725878756404</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1253873020541557</v>
+        <v>0.1284377975174095</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>114</v>
@@ -7808,19 +7808,19 @@
         <v>68909</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56804</v>
+        <v>57027</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81591</v>
+        <v>82708</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08157153465556287</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06724237865861546</v>
+        <v>0.06750691191492973</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09658402147723337</v>
+        <v>0.09790669226278188</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>382612</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>371782</v>
+        <v>373034</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>389339</v>
+        <v>389768</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9419044751287305</v>
+        <v>0.9419044751287304</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9152440137349409</v>
+        <v>0.9183257147460214</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9584646981950878</v>
+        <v>0.9595213245191251</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>744</v>
@@ -7858,19 +7858,19 @@
         <v>393243</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>383564</v>
+        <v>382226</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>402406</v>
+        <v>401540</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8966837345512253</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8746126979458443</v>
+        <v>0.8715622024825922</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9175757740831942</v>
+        <v>0.915602741212436</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1281</v>
@@ -7879,19 +7879,19 @@
         <v>775856</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>763174</v>
+        <v>762057</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>787961</v>
+        <v>787738</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.918428465344437</v>
+        <v>0.9184284653444372</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9034159785227666</v>
+        <v>0.9020933077372181</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9327576213413845</v>
+        <v>0.9324930880850701</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>16699</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11370</v>
+        <v>10814</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25656</v>
+        <v>24558</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05383214741418259</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03665546773876008</v>
+        <v>0.03486171222471253</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08270949444817416</v>
+        <v>0.07916799593018405</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -8004,19 +8004,19 @@
         <v>39002</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30534</v>
+        <v>31105</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48952</v>
+        <v>49052</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08399757371256968</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06575921544343515</v>
+        <v>0.06698945968039458</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1054255486302263</v>
+        <v>0.1056413231459705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>95</v>
@@ -8025,19 +8025,19 @@
         <v>55701</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44546</v>
+        <v>44723</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67568</v>
+        <v>67212</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07191627346583176</v>
+        <v>0.07191627346583175</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05751440624372545</v>
+        <v>0.05774239096755991</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08723827405748824</v>
+        <v>0.08677785131717604</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>293499</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>284542</v>
+        <v>285640</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>298828</v>
+        <v>299384</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9461678525858171</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9172905055518258</v>
+        <v>0.920832004069816</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9633445322612398</v>
+        <v>0.9651382877752874</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>810</v>
@@ -8075,19 +8075,19 @@
         <v>425324</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>415374</v>
+        <v>415274</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>433792</v>
+        <v>433221</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9160024262874303</v>
+        <v>0.9160024262874302</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8945744513697739</v>
+        <v>0.8943586768540297</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9342407845565649</v>
+        <v>0.9330105403196056</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1243</v>
@@ -8096,19 +8096,19 @@
         <v>718824</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>706957</v>
+        <v>707313</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>729979</v>
+        <v>729802</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9280837265341683</v>
+        <v>0.9280837265341682</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9127617259425117</v>
+        <v>0.9132221486828239</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9424855937562745</v>
+        <v>0.94225760903244</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>342929</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>306944</v>
+        <v>306091</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>385023</v>
+        <v>386087</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09723153214343004</v>
+        <v>0.09723153214343003</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08702862900726986</v>
+        <v>0.08678672178550764</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.109166393051504</v>
+        <v>0.1094681089141488</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>625</v>
@@ -8221,19 +8221,19 @@
         <v>445182</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>410388</v>
+        <v>411319</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>482479</v>
+        <v>481273</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1197521200557106</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1103929114332298</v>
+        <v>0.1106432249438359</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1297848794768537</v>
+        <v>0.1294605370500311</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>927</v>
@@ -8242,19 +8242,19 @@
         <v>788111</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>732948</v>
+        <v>736770</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>841457</v>
+        <v>840390</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1087880682930356</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.101173605771423</v>
+        <v>0.1017011589876645</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1161517756946403</v>
+        <v>0.1160045453312432</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3184004</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3141910</v>
+        <v>3140846</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3219989</v>
+        <v>3220842</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9027684678565699</v>
+        <v>0.9027684678565697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.890833606948496</v>
+        <v>0.8905318910858507</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.91297137099273</v>
+        <v>0.9132132782144922</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4718</v>
@@ -8292,19 +8292,19 @@
         <v>3272343</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3235046</v>
+        <v>3236252</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3307137</v>
+        <v>3306206</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8802478799442895</v>
+        <v>0.8802478799442892</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8702151205231463</v>
+        <v>0.8705394629499689</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8896070885667704</v>
+        <v>0.8893567750561644</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7786</v>
@@ -8313,19 +8313,19 @@
         <v>6456347</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6403001</v>
+        <v>6404068</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6511510</v>
+        <v>6507688</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8912119317069643</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8838482243053596</v>
+        <v>0.8839954546687567</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8988263942285767</v>
+        <v>0.8982988410123356</v>
       </c>
     </row>
     <row r="27">
